--- a/static/excelFile/wafer_test_sheet_test.xlsx
+++ b/static/excelFile/wafer_test_sheet_test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\pythonAI\waferFail\excelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\pythonAI\waferFail\static\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB288B0D-903D-44FE-ABAC-AB4203DE200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1차" sheetId="1" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,7 +451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -600,7 +601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -735,7 +736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -869,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1003,11 +1004,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1031,11 +1032,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>4</v>
+      </c>
       <c r="E4" s="5">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>5</v>
+      </c>
       <c r="D5" s="4">
         <v>100</v>
       </c>
@@ -1047,6 +1054,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>6</v>
+      </c>
       <c r="C6" s="4">
         <v>100</v>
       </c>
@@ -1137,7 +1147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
